--- a/data/trans_dic/DC-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DC-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,59</t>
+          <t>2,16; 5,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,77</t>
+          <t>2,17; 5,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,1</t>
+          <t>0,68; 2,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 13,38</t>
+          <t>3,95; 13,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,12; 22,02</t>
+          <t>14,83; 21,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,77; 17,67</t>
+          <t>10,76; 17,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,33; 12,28</t>
+          <t>6,35; 12,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,33; 30,56</t>
+          <t>17,75; 30,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,86; 12,47</t>
+          <t>8,83; 12,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,77; 10,43</t>
+          <t>6,8; 10,71</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 6,71</t>
+          <t>3,72; 6,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,78; 19,9</t>
+          <t>11,29; 19,12</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,42</t>
+          <t>6,4; 10,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,39</t>
+          <t>4,09; 7,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,43</t>
+          <t>2,06; 5,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,75; 14,05</t>
+          <t>6,72; 14,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,01; 21,39</t>
+          <t>14,91; 21,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,43; 14,82</t>
+          <t>9,35; 14,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,77</t>
+          <t>8,79; 13,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,92; 36,99</t>
+          <t>23,83; 36,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,08; 14,88</t>
+          <t>10,97; 14,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 10,3</t>
+          <t>7,0; 10,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,71; 8,83</t>
+          <t>5,82; 8,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,66; 24,7</t>
+          <t>16,75; 25,02</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,98; 17,42</t>
+          <t>11,91; 17,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,1; 9,18</t>
+          <t>5,12; 9,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,48</t>
+          <t>4,55; 8,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,25; 17,75</t>
+          <t>11,44; 17,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,24; 20,14</t>
+          <t>14,34; 20,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,18; 17,66</t>
+          <t>12,29; 17,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,64; 13,82</t>
+          <t>8,53; 13,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,07; 32,59</t>
+          <t>24,56; 32,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 17,99</t>
+          <t>13,96; 18,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 12,92</t>
+          <t>9,38; 12,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,08; 10,26</t>
+          <t>7,16; 10,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,46; 24,29</t>
+          <t>19,67; 24,24</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,66; 23,77</t>
+          <t>16,6; 23,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 12,1</t>
+          <t>7,22; 11,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 11,36</t>
+          <t>6,56; 11,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,58; 26,16</t>
+          <t>17,46; 26,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,21; 26,66</t>
+          <t>19,32; 26,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,21; 20,54</t>
+          <t>14,19; 20,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,07; 16,57</t>
+          <t>11,18; 16,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,74; 40,29</t>
+          <t>33,49; 40,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,98; 24,03</t>
+          <t>18,75; 23,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,47; 15,42</t>
+          <t>11,53; 15,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,55; 13,1</t>
+          <t>9,55; 13,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,31; 32,44</t>
+          <t>26,44; 32,34</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,72; 34,17</t>
+          <t>24,75; 33,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,13; 16,46</t>
+          <t>10,24; 16,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,6; 17,35</t>
+          <t>10,49; 17,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,0; 33,31</t>
+          <t>26,03; 33,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,62; 34,17</t>
+          <t>24,76; 33,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,75; 30,12</t>
+          <t>21,72; 30,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,73; 25,5</t>
+          <t>17,68; 25,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,84; 47,0</t>
+          <t>40,88; 47,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,28; 32,62</t>
+          <t>25,55; 32,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,84; 22,48</t>
+          <t>16,64; 22,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,91; 20,03</t>
+          <t>15,15; 20,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>34,43; 39,48</t>
+          <t>34,57; 39,42</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,1; 34,14</t>
+          <t>26,67; 34,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,81; 25,16</t>
+          <t>18,11; 25,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,4; 20,38</t>
+          <t>14,7; 20,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,95; 38,05</t>
+          <t>31,88; 38,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,94; 39,43</t>
+          <t>32,23; 39,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,01; 38,01</t>
+          <t>30,91; 37,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,94; 25,55</t>
+          <t>18,99; 25,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>53,1; 70,79</t>
+          <t>52,96; 71,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>30,44; 36,11</t>
+          <t>30,74; 36,17</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,34; 31,44</t>
+          <t>26,22; 31,51</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,83; 22,51</t>
+          <t>17,95; 22,62</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>45,09; 59,47</t>
+          <t>45,33; 60,73</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,17; 17,86</t>
+          <t>15,06; 17,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,69; 10,93</t>
+          <t>8,84; 10,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,73; 9,69</t>
+          <t>7,69; 9,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,27; 23,46</t>
+          <t>20,1; 23,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,02; 25,19</t>
+          <t>21,84; 24,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,74; 21,46</t>
+          <t>18,87; 21,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,89; 16,36</t>
+          <t>13,94; 16,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,95; 46,18</t>
+          <t>37,94; 46,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,87; 20,89</t>
+          <t>19,02; 20,99</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,2; 15,91</t>
+          <t>14,17; 15,92</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>11,21; 12,75</t>
+          <t>11,15; 12,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,07; 35,13</t>
+          <t>30,03; 35,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DC-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,47</t>
+          <t>2,14; 5,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,91</t>
+          <t>2,05; 5,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,94</t>
+          <t>0,53; 3,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,83; 21,95</t>
+          <t>15,27; 21,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,76; 17,74</t>
+          <t>10,48; 17,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,35; 12,08</t>
+          <t>6,33; 12,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,56</t>
+          <t>8,98; 12,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,8; 10,71</t>
+          <t>6,61; 10,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 6,8</t>
+          <t>3,73; 6,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 10,88</t>
+          <t>6,54; 10,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 7,49</t>
+          <t>3,95; 7,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,28</t>
+          <t>2,16; 5,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,91; 21,39</t>
+          <t>15,0; 21,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,35; 14,95</t>
+          <t>9,5; 14,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,79; 13,85</t>
+          <t>8,67; 13,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,97; 14,62</t>
+          <t>10,91; 14,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 10,17</t>
+          <t>6,95; 10,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,82; 8,94</t>
+          <t>5,7; 8,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,91; 17,37</t>
+          <t>12,01; 17,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,16</t>
+          <t>5,25; 9,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 8,26</t>
+          <t>4,49; 8,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,34; 20,26</t>
+          <t>14,38; 20,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,29; 17,88</t>
+          <t>12,34; 17,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,53; 13,27</t>
+          <t>8,6; 13,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,96; 18,2</t>
+          <t>13,88; 18,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,38; 12,73</t>
+          <t>9,11; 12,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 10,31</t>
+          <t>7,13; 10,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,6; 23,72</t>
+          <t>16,52; 23,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 11,9</t>
+          <t>7,25; 11,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 11,23</t>
+          <t>6,67; 11,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,32; 26,69</t>
+          <t>19,3; 26,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,19; 20,69</t>
+          <t>14,32; 20,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,18; 16,74</t>
+          <t>11,05; 16,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,75; 23,97</t>
+          <t>18,87; 23,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,53; 15,56</t>
+          <t>11,48; 15,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,55; 13,18</t>
+          <t>9,41; 13,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,75; 33,74</t>
+          <t>24,48; 33,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,24; 16,97</t>
+          <t>10,29; 16,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,49; 17,18</t>
+          <t>10,98; 17,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,76; 33,42</t>
+          <t>24,72; 33,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,72; 30,31</t>
+          <t>21,7; 30,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,68; 25,3</t>
+          <t>17,62; 25,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,55; 32,3</t>
+          <t>25,77; 32,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,64; 22,64</t>
+          <t>17,0; 22,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,15; 20,34</t>
+          <t>15,15; 19,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,67; 34,19</t>
+          <t>26,25; 34,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,11; 25,63</t>
+          <t>18,12; 25,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,7; 20,59</t>
+          <t>14,47; 20,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>32,23; 39,68</t>
+          <t>31,97; 39,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,91; 37,96</t>
+          <t>30,67; 37,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,99; 25,48</t>
+          <t>19,3; 25,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>30,74; 36,17</t>
+          <t>30,8; 36,23</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,22; 31,51</t>
+          <t>26,53; 31,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,95; 22,62</t>
+          <t>18,09; 22,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,06; 17,81</t>
+          <t>15,31; 17,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,84; 10,92</t>
+          <t>8,75; 10,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,69; 9,78</t>
+          <t>7,69; 9,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,84; 24,85</t>
+          <t>21,86; 24,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,87; 21,64</t>
+          <t>18,76; 21,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,94; 16,36</t>
+          <t>13,85; 16,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,02; 20,99</t>
+          <t>19,06; 20,96</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,17; 15,92</t>
+          <t>14,14; 15,9</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>11,15; 12,71</t>
+          <t>11,24; 12,81</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/DC-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DC-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,54</t>
+          <t>2,25; 5,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,81</t>
+          <t>2,15; 5,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,2</t>
+          <t>0,53; 3,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,95; 13,79</t>
+          <t>3,61; 13,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,27; 21,85</t>
+          <t>15,12; 22,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,48; 17,39</t>
+          <t>10,77; 17,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,33; 12,21</t>
+          <t>6,33; 12,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,75; 30,73</t>
+          <t>17,33; 30,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,98; 12,66</t>
+          <t>8,86; 12,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,39</t>
+          <t>6,77; 10,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,72</t>
+          <t>3,72; 6,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,29; 19,12</t>
+          <t>11,78; 19,9</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,54; 10,62</t>
+          <t>6,47; 10,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,52</t>
+          <t>3,93; 7,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,32</t>
+          <t>2,07; 5,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,72; 14,2</t>
+          <t>6,75; 14,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,0; 21,13</t>
+          <t>15,01; 21,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,5; 14,86</t>
+          <t>9,43; 14,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,67; 13,7</t>
+          <t>8,68; 13,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,83; 36,44</t>
+          <t>23,92; 36,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,91; 14,65</t>
+          <t>11,08; 14,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,95; 10,14</t>
+          <t>7,01; 10,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 8,7</t>
+          <t>5,71; 8,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,75; 25,02</t>
+          <t>16,66; 24,7</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,01; 17,58</t>
+          <t>11,98; 17,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,25; 9,39</t>
+          <t>5,1; 9,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,4</t>
+          <t>4,52; 8,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,44; 17,73</t>
+          <t>11,25; 17,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,38; 20,12</t>
+          <t>14,24; 20,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,34; 17,56</t>
+          <t>12,18; 17,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,6; 13,37</t>
+          <t>8,64; 13,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,56; 32,65</t>
+          <t>24,07; 32,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,88; 18,07</t>
+          <t>13,91; 17,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,11; 12,65</t>
+          <t>9,43; 12,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 10,18</t>
+          <t>7,08; 10,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,67; 24,24</t>
+          <t>19,46; 24,29</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,52; 23,72</t>
+          <t>16,66; 23,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,25; 11,92</t>
+          <t>6,99; 12,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,67; 11,36</t>
+          <t>6,68; 11,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 26,19</t>
+          <t>17,58; 26,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,3; 26,69</t>
+          <t>19,21; 26,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 20,75</t>
+          <t>14,21; 20,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,05; 16,69</t>
+          <t>11,07; 16,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,49; 40,13</t>
+          <t>33,74; 40,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,87; 23,9</t>
+          <t>18,98; 24,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,48; 15,62</t>
+          <t>11,47; 15,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,41; 13,11</t>
+          <t>9,55; 13,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,44; 32,34</t>
+          <t>26,31; 32,44</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,48; 33,95</t>
+          <t>24,72; 34,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,29; 16,9</t>
+          <t>10,13; 16,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,98; 17,66</t>
+          <t>10,6; 17,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,03; 33,15</t>
+          <t>26,0; 33,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,72; 33,79</t>
+          <t>24,62; 34,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,7; 30,32</t>
+          <t>21,75; 30,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,62; 25,22</t>
+          <t>17,73; 25,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,88; 47,07</t>
+          <t>40,84; 47,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,77; 32,64</t>
+          <t>26,28; 32,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,0; 22,6</t>
+          <t>16,84; 22,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,15; 19,92</t>
+          <t>14,91; 20,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>34,57; 39,42</t>
+          <t>34,43; 39,48</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,25; 34,57</t>
+          <t>26,1; 34,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,12; 25,26</t>
+          <t>17,81; 25,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,47; 20,51</t>
+          <t>14,4; 20,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,88; 38,11</t>
+          <t>31,95; 38,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,97; 39,19</t>
+          <t>31,94; 39,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,67; 37,78</t>
+          <t>31,01; 38,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,3; 25,62</t>
+          <t>18,94; 25,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>52,96; 71,74</t>
+          <t>53,1; 70,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>30,8; 36,23</t>
+          <t>30,44; 36,11</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,53; 31,45</t>
+          <t>26,34; 31,44</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,09; 22,34</t>
+          <t>17,83; 22,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>45,33; 60,73</t>
+          <t>45,09; 59,47</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,31; 17,83</t>
+          <t>15,17; 17,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,75; 10,88</t>
+          <t>8,69; 10,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,69; 9,69</t>
+          <t>7,73; 9,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,1; 23,25</t>
+          <t>20,27; 23,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,86; 24,87</t>
+          <t>22,02; 25,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,76; 21,56</t>
+          <t>18,74; 21,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,85; 16,63</t>
+          <t>13,89; 16,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,94; 46,42</t>
+          <t>37,95; 46,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,06; 20,96</t>
+          <t>18,87; 20,89</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,14; 15,9</t>
+          <t>14,2; 15,91</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>11,24; 12,81</t>
+          <t>11,21; 12,75</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,03; 35,7</t>
+          <t>30,07; 35,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DC-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,47 +671,47 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>14,99%</t>
         </is>
       </c>
     </row>
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,59</t>
+          <t>2,7; 6,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,77</t>
+          <t>2,26; 6,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,54 +739,54 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 13,38</t>
+          <t>3,71; 13,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,12; 22,02</t>
+          <t>17,7; 25,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,77; 17,67</t>
+          <t>12,64; 19,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,33; 12,28</t>
+          <t>7,33; 13,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,33; 30,56</t>
+          <t>17,95; 31,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,86; 12,47</t>
+          <t>10,43; 14,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,77; 10,43</t>
+          <t>7,72; 11,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 6,71</t>
+          <t>4,16; 7,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,78; 19,9</t>
+          <t>11,42; 19,73</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>36,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>24,54%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,42</t>
+          <t>6,89; 10,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,39</t>
+          <t>4,2; 7,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,43</t>
+          <t>2,28; 5,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,75; 14,05</t>
+          <t>6,81; 14,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,01; 21,39</t>
+          <t>21,49; 28,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,43; 14,82</t>
+          <t>11,92; 18,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,77</t>
+          <t>11,07; 16,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,92; 36,99</t>
+          <t>25,43; 60,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,08; 14,88</t>
+          <t>14,29; 18,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 10,3</t>
+          <t>8,35; 11,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,71; 8,83</t>
+          <t>7,0; 10,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,66; 24,7</t>
+          <t>17,34; 43,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>21,58%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,98; 17,42</t>
+          <t>12,91; 18,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,1; 9,18</t>
+          <t>5,47; 9,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,48</t>
+          <t>5,2; 9,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,25; 17,75</t>
+          <t>11,43; 17,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,24; 20,14</t>
+          <t>19,51; 26,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,18; 17,66</t>
+          <t>17,05; 23,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,64; 13,82</t>
+          <t>9,98; 15,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,07; 32,59</t>
+          <t>20,26; 32,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 17,99</t>
+          <t>17,01; 21,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 12,92</t>
+          <t>12,18; 16,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,08; 10,26</t>
+          <t>8,1; 11,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,46; 24,29</t>
+          <t>18,37; 23,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,81%</t>
+          <t>35,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>25,41%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,66; 23,77</t>
+          <t>17,68; 24,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 12,1</t>
+          <t>7,45; 12,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 11,36</t>
+          <t>7,65; 12,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,58; 26,16</t>
+          <t>7,54; 24,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,21; 26,66</t>
+          <t>23,61; 31,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,21; 20,54</t>
+          <t>17,58; 24,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,07; 16,57</t>
+          <t>14,06; 19,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,74; 40,29</t>
+          <t>30,02; 39,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,98; 24,03</t>
+          <t>21,88; 27,13</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,47; 15,42</t>
+          <t>13,34; 17,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,55; 13,1</t>
+          <t>11,64; 15,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,31; 32,44</t>
+          <t>15,39; 30,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>31,91%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>29,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>24,78%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>44,05%</t>
+          <t>43,97%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>31,3%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>36,86%</t>
+          <t>36,78%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,72; 34,17</t>
+          <t>27,61; 37,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,13; 16,46</t>
+          <t>10,36; 16,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,6; 17,35</t>
+          <t>11,96; 19,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,0; 33,31</t>
+          <t>26,07; 33,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,62; 34,17</t>
+          <t>26,16; 35,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,75; 30,12</t>
+          <t>24,54; 33,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,73; 25,5</t>
+          <t>20,7; 29,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,84; 47,0</t>
+          <t>40,78; 46,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,28; 32,62</t>
+          <t>28,28; 34,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,84; 22,48</t>
+          <t>18,65; 24,15</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,91; 20,03</t>
+          <t>17,42; 22,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>34,43; 39,48</t>
+          <t>34,36; 39,42</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>30,1%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>35,07%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>35,77%</t>
+          <t>41,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>34,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>58,86%</t>
+          <t>65,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>49,23%</t>
+          <t>51,91%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,1; 34,14</t>
+          <t>22,52; 32,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,81; 25,16</t>
+          <t>16,64; 25,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,4; 20,38</t>
+          <t>11,71; 19,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,95; 38,05</t>
+          <t>25,96; 33,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,94; 39,43</t>
+          <t>36,47; 45,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,01; 38,01</t>
+          <t>29,74; 39,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,94; 25,55</t>
+          <t>19,98; 28,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>53,1; 70,79</t>
+          <t>46,65; 87,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>30,44; 36,11</t>
+          <t>31,62; 38,6</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,34; 31,44</t>
+          <t>24,76; 31,76</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,83; 22,51</t>
+          <t>17,54; 23,22</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>45,09; 59,47</t>
+          <t>38,28; 77,72</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>36,72%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>25,74%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>41,53%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>42,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>32,51%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>40,32%</t>
+          <t>59,1%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>37,05%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>36,22%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>52,09%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,17; 17,86</t>
+          <t>31,23; 43,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,69; 10,93</t>
+          <t>20,0; 31,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,73; 9,69</t>
+          <t>17,77; 27,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,27; 23,46</t>
+          <t>36,95; 46,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,02; 25,19</t>
+          <t>32,23; 42,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,74; 21,46</t>
+          <t>37,67; 48,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,89; 16,36</t>
+          <t>27,04; 37,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,95; 46,18</t>
+          <t>55,96; 62,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,87; 20,89</t>
+          <t>32,96; 41,53</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,2; 15,91</t>
+          <t>32,32; 40,06</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>11,21; 12,75</t>
+          <t>25,32; 32,83</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,07; 35,13</t>
+          <t>49,15; 54,72</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>17,51%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10,34%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9,48%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>20,19%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>27,86%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>23,84%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>18,37%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>42,35%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>22,77%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>17,22%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>14,02%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>31,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>16,27; 19,01</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9,21; 11,44</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8,54; 10,6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>15,67; 22,38</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>26,41; 29,58</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>22,37; 25,18</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>17,06; 19,8</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>37,67; 52,79</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>21,63; 23,74</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>16,26; 18,17</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>13,27; 14,91</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>28,22; 37,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/DC-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DC-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,44</t>
+          <t>2,74; 6,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,02</t>
+          <t>2,17; 6,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,1</t>
+          <t>0,49; 2,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,71; 13,9</t>
+          <t>3,98; 14,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,7; 25,02</t>
+          <t>17,81; 24,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,64; 19,79</t>
+          <t>12,63; 19,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,33; 13,47</t>
+          <t>7,36; 13,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,95; 31,52</t>
+          <t>18,33; 31,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,43; 14,49</t>
+          <t>10,47; 14,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,68</t>
+          <t>7,79; 11,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,37</t>
+          <t>4,15; 7,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,42; 19,73</t>
+          <t>11,18; 19,41</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,89; 10,97</t>
+          <t>6,73; 10,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,62</t>
+          <t>4,03; 7,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,75</t>
+          <t>2,26; 5,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 14,24</t>
+          <t>6,73; 14,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,49; 28,75</t>
+          <t>21,54; 28,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,92; 18,19</t>
+          <t>11,64; 17,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,07; 16,69</t>
+          <t>10,9; 16,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,43; 60,73</t>
+          <t>24,97; 61,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,29; 18,32</t>
+          <t>14,08; 18,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,35; 11,73</t>
+          <t>8,29; 11,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 10,34</t>
+          <t>6,84; 10,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,34; 43,89</t>
+          <t>17,52; 43,04</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,91; 18,62</t>
+          <t>13,02; 18,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 9,67</t>
+          <t>5,59; 9,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,2; 9,36</t>
+          <t>5,16; 9,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,43; 17,91</t>
+          <t>11,59; 18,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,51; 26,16</t>
+          <t>19,56; 25,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,05; 23,54</t>
+          <t>17,41; 23,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,98; 15,17</t>
+          <t>9,88; 14,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,26; 32,25</t>
+          <t>21,47; 32,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,01; 21,51</t>
+          <t>16,98; 21,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,18; 16,06</t>
+          <t>12,14; 15,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,1; 11,59</t>
+          <t>7,99; 11,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,37; 23,98</t>
+          <t>17,91; 24,0</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,68; 24,82</t>
+          <t>17,64; 24,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,45; 12,5</t>
+          <t>7,45; 12,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,65; 12,4</t>
+          <t>7,39; 12,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 24,71</t>
+          <t>7,29; 24,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,61; 31,37</t>
+          <t>23,93; 32,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,58; 24,71</t>
+          <t>17,81; 24,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,06; 19,84</t>
+          <t>14,04; 20,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,02; 39,26</t>
+          <t>30,14; 38,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,88; 27,13</t>
+          <t>21,52; 27,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,34; 17,49</t>
+          <t>13,32; 17,63</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,64; 15,52</t>
+          <t>11,56; 15,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,39; 30,95</t>
+          <t>14,47; 30,85</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,61; 37,17</t>
+          <t>26,95; 36,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,36; 16,61</t>
+          <t>10,3; 17,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,96; 19,04</t>
+          <t>12,11; 18,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,07; 33,38</t>
+          <t>25,82; 33,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,16; 35,72</t>
+          <t>26,56; 35,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,54; 33,38</t>
+          <t>24,43; 33,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,7; 29,09</t>
+          <t>20,95; 28,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,78; 46,93</t>
+          <t>40,57; 46,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,28; 34,87</t>
+          <t>28,15; 34,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,65; 24,15</t>
+          <t>18,7; 24,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,42; 22,82</t>
+          <t>17,46; 22,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>34,36; 39,42</t>
+          <t>34,28; 39,2</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,52; 32,52</t>
+          <t>22,62; 32,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,64; 25,67</t>
+          <t>16,22; 25,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,71; 19,8</t>
+          <t>11,99; 20,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,96; 33,89</t>
+          <t>25,99; 33,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>36,47; 45,82</t>
+          <t>36,88; 46,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,74; 39,46</t>
+          <t>29,34; 39,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,98; 28,97</t>
+          <t>20,36; 28,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>46,65; 87,33</t>
+          <t>46,53; 85,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>31,62; 38,6</t>
+          <t>31,2; 38,3</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,76; 31,76</t>
+          <t>24,51; 31,51</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,54; 23,22</t>
+          <t>17,03; 23,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>38,28; 77,72</t>
+          <t>38,57; 74,15</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>31,23; 43,38</t>
+          <t>30,38; 43,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,0; 31,47</t>
+          <t>20,6; 31,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,77; 27,73</t>
+          <t>18,21; 27,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>36,95; 46,17</t>
+          <t>37,45; 46,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>32,23; 42,95</t>
+          <t>31,97; 42,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,67; 48,31</t>
+          <t>37,74; 48,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,04; 37,33</t>
+          <t>27,92; 37,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>55,96; 62,46</t>
+          <t>55,67; 62,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>32,96; 41,53</t>
+          <t>32,71; 41,29</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>32,32; 40,06</t>
+          <t>31,96; 39,8</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>25,32; 32,83</t>
+          <t>24,83; 32,52</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>49,15; 54,72</t>
+          <t>49,08; 54,63</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,27; 19,01</t>
+          <t>16,32; 18,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,21; 11,44</t>
+          <t>9,4; 11,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,54; 10,6</t>
+          <t>8,43; 10,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,67; 22,38</t>
+          <t>16,15; 22,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>26,41; 29,58</t>
+          <t>26,44; 29,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>22,37; 25,18</t>
+          <t>22,43; 25,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,06; 19,8</t>
+          <t>16,94; 19,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>37,67; 52,79</t>
+          <t>37,77; 52,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21,63; 23,74</t>
+          <t>21,7; 23,79</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>16,26; 18,17</t>
+          <t>16,24; 18,14</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13,27; 14,91</t>
+          <t>13,14; 14,85</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>28,22; 37,94</t>
+          <t>28,45; 38,85</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21003</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17253</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6128</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31291</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>98937</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>67483</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>38941</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>75647</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>119940</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>84736</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>45070</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>106938</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13519; 32361</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9869; 27886</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2064; 12470</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15927; 58463</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>83279; 116846</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>54355; 85576</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>29131; 51618</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>57404; 97771</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>100643; 141346</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>68925; 104146</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>33851; 58979</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>79700; 138417</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>64146</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>39496</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21828</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>42134</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>154947</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>89191</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>76499</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>187493</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>219093</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>128686</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>98327</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>229627</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>49487; 80659</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>27657; 53876</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13346; 33896</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>28506; 59522</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>134754; 176207</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>71013; 106084</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>61440; 94385</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>127879; 313067</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>191573; 245061</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>107501; 150685</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>78973; 116794</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>163947; 402653</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>99075</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>50853</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>47380</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>77805</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>155284</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>143601</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>81059</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>165730</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>254359</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>194453</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>128439</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>243535</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>83126; 118923</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>38118; 65662</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34513; 63176</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>62140; 98188</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>134887; 178272</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>123733; 167035</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>65330; 97813</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>127128; 190302</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>225528; 282656</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>169011; 220429</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>106278; 149867</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>202031; 270808</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>109135</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>60403</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>63200</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>153286</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>142548</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>128934</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>109890</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>253438</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>251683</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>189337</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>173089</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>406724</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>91571; 127504</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>45801; 74987</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>47742; 80439</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>64750; 221531</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>123382; 165133</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>109763; 151730</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>91153; 131666</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>214847; 277139</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>222714; 282080</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>163992; 216981</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>149725; 199350</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>231602; 493771</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>123390</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>57230</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>72324</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>167079</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>124085</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>129882</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>123129</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>240890</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>247475</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>187112</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>195453</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>407969</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>104218; 142541</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>44223; 73828</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>57874; 90075</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>144911; 186518</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>107284; 142892</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>109386; 150280</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>104113; 143519</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>222261; 257318</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>222612; 273497</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>164019; 216136</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>170159; 223076</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>380190; 434830</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>79916</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>64725</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>52413</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>109663</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>141399</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>122133</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>91573</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>397289</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>221315</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>186858</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>143985</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>506952</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>66197; 94878</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>50263; 79962</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>40070; 67660</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>95680; 124204</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>126487; 159413</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>103858; 139608</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>76895; 108571</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>283098; 519179</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>198302; 243433</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>162718; 209185</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>121249; 166458</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>376617; 724139</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>77068</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>64318</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>58419</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>117431</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>124396</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>167060</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>130090</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>251686</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>201464</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>231378</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>188509</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>369117</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>63766; 91790</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>51463; 79194</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>46803; 71115</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>105898; 130329</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>106755; 142351</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>146795; 186697</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>111724; 151192</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>237069; 266385</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>177855; 224554</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>204156; 254244</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>163170; 213723</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>347759; 387110</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>832</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2204</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1506</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1119</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3036</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>573733</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>354278</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>321691</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>698690</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>941596</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>848283</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>651181</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1572173</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1515329</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1202561</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>972872</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2270863</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>534641; 619071</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>322100; 392294</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>286053; 360552</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>558646; 774040</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>893553; 999137</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>798128; 901736</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>600473; 694991</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1402061; 1966429</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1444561; 1583231</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1134634; 1266868</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>911753; 1030591</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>2040610; 2786276</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>